--- a/shock_iot2.xlsx
+++ b/shock_iot2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industrial_ecology\Thesis\Circularinterventions\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industrial_ecology\Thesis\Circularinterventions\Code\Input_circular_interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2ED43D-10C8-4227-B534-EA6946381996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF65A8-E278-44A0-8562-BB84E1306BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1355">
   <si>
     <t>AT</t>
   </si>
@@ -10737,8 +10737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10981,10 +10981,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11673,6 +11673,32 @@
       </c>
       <c r="H26">
         <v>0.08</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/shock_iot2.xlsx
+++ b/shock_iot2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industrial_ecology\Thesis\Circularinterventions\Code\Input_circular_interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DF65A8-E278-44A0-8562-BB84E1306BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58437F0-B5DA-4D41-9FD2-25E6DBDCABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1354">
   <si>
     <t>AT</t>
   </si>
@@ -4087,9 +4087,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>Absolute</t>
   </si>
 </sst>
 </file>
@@ -10735,10 +10732,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10783,10 +10780,10 @@
         <v>1325</v>
       </c>
       <c r="F2" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G2">
-        <v>-0.7</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -10806,10 +10803,33 @@
         <v>1325</v>
       </c>
       <c r="F3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="G3">
-        <v>0.9</v>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G4">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -10983,7 +11003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>

--- a/shock_iot2.xlsx
+++ b/shock_iot2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Industrial_ecology\Thesis\Circularinterventions\Code\Input_circular_interventions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58437F0-B5DA-4D41-9FD2-25E6DBDCABE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F38508B-FA74-41B4-A189-49EB68A34A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indeces" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,25 @@
     <sheet name="e" sheetId="5" r:id="rId5"/>
     <sheet name="z" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1354">
   <si>
     <t>AT</t>
   </si>
@@ -10734,8 +10747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10936,9 +10949,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
@@ -10960,6 +10975,26 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>1349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F2">
+        <v>-0.3</v>
       </c>
     </row>
   </sheetData>
@@ -11003,8 +11038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11744,7 +11779,7 @@
           <x14:formula1>
             <xm:f>indeces!$B$1:$B$163</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C27 F2:F27</xm:sqref>
+          <xm:sqref>C2:C28 F2:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
